--- a/lections/Лекции.xlsx
+++ b/lections/Лекции.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaski\sberbank\made\2 модуль\CV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaski\sberbank\made\2 модуль\CV\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA5B6A6-1364-492B-AE11-F6E54866B2EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CA5E3E-59C1-435C-B908-4229706B3021}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="20260" windowHeight="10894" xr2:uid="{72699DE9-3AE7-479E-B353-7DC036AF0F7E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>No</t>
   </si>
@@ -86,18 +86,6 @@
     <t>Metric Learning</t>
   </si>
   <si>
-    <t>Архитектура ML-систем.</t>
-  </si>
-  <si>
-    <t>CV for video</t>
-  </si>
-  <si>
-    <t>Semi-supervised learning</t>
-  </si>
-  <si>
-    <t>CV Deploy</t>
-  </si>
-  <si>
     <t>Нейросетевые детекторы 2</t>
   </si>
   <si>
@@ -129,6 +117,63 @@
   </si>
   <si>
     <t>Обработка видео </t>
+  </si>
+  <si>
+    <t>https://youtu.be/UY-x0bLJT24</t>
+  </si>
+  <si>
+    <t>Few shot and semi-supervised learning</t>
+  </si>
+  <si>
+    <t>https://youtu.be/IBV6_XPVaCw</t>
+  </si>
+  <si>
+    <t>GAN 1. [простой пример]</t>
+  </si>
+  <si>
+    <t>https://youtu.be/RuyTK4NAvQU</t>
+  </si>
+  <si>
+    <t>GAN 2</t>
+  </si>
+  <si>
+    <t>Даниил Лысухин</t>
+  </si>
+  <si>
+    <t>Фёдор Киташов</t>
+  </si>
+  <si>
+    <t>Андрей Бояров</t>
+  </si>
+  <si>
+    <t>Эдуард Тянтов</t>
+  </si>
+  <si>
+    <t>Иван Карпухин</t>
+  </si>
+  <si>
+    <t>Борис Лесцов </t>
+  </si>
+  <si>
+    <t>https://youtu.be/Y7Jx4YmzyaE</t>
+  </si>
+  <si>
+    <t>Деплой и Продакшен</t>
+  </si>
+  <si>
+    <t>https://youtu.be/0v4sAS8rlyk</t>
+  </si>
+  <si>
+    <t>Юлиана Лихолай</t>
+  </si>
+  <si>
+    <t>AI PRM</t>
+  </si>
+  <si>
+    <t>https://youtu.be/SELjp79j1Fo</t>
+  </si>
+  <si>
+    <t>Лекторы</t>
   </si>
 </sst>
 </file>
@@ -161,7 +206,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,8 +219,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -198,21 +249,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -225,8 +299,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -543,216 +631,345 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD61EA8B-C709-4EF0-B8C4-A0EB4BD1702F}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="36.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+      <c r="D1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="5" t="s">
+      <c r="D2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="5" t="s">
+      <c r="D4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="D5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="5" t="s">
+      <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="D10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="D12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30.05" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="C13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30.05" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>11</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="D17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C18" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>13</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="D18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+        <v>33</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="D1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B6:B7"/>
@@ -770,17 +987,20 @@
     <hyperlink ref="C5" r:id="rId4" xr:uid="{0F0C40F6-F137-4987-BBDA-EE3F9EFDE37D}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{35E47C87-71C2-4523-B2A2-0E0CA50DEF17}"/>
     <hyperlink ref="C7" r:id="rId6" xr:uid="{0FC99197-1E4D-42B2-BE5A-05E231D6ED26}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{64608E45-7237-46BA-BEAA-3402EB4824EE}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{6A602E90-3AFD-4151-AC0C-5B6ACEFECE7E}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{F3AF1C72-846E-4B4D-882E-F14E9F260857}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{A79B9850-A26C-43E2-93C2-B555669F0271}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{8018A17E-51C4-4FE0-AFA5-66CC74CAFA26}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{996D3980-69CB-400D-AD31-84CA3C67F70F}"/>
-    <hyperlink ref="C14" r:id="rId13" tooltip="Поделиться ссылкой" xr:uid="{F4C4F6AD-19DF-4B41-97AD-B7062A76AC79}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{B4933AAF-EDBD-4643-B9BB-A562D299B1EB}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{FC55D911-0694-45D3-A3E6-E6544471CA67}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{F3AF1C72-846E-4B4D-882E-F14E9F260857}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{A79B9850-A26C-43E2-93C2-B555669F0271}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{8018A17E-51C4-4FE0-AFA5-66CC74CAFA26}"/>
+    <hyperlink ref="C13" r:id="rId10" xr:uid="{996D3980-69CB-400D-AD31-84CA3C67F70F}"/>
+    <hyperlink ref="C14" r:id="rId11" tooltip="Поделиться ссылкой" xr:uid="{F4C4F6AD-19DF-4B41-97AD-B7062A76AC79}"/>
+    <hyperlink ref="C15" r:id="rId12" xr:uid="{B4933AAF-EDBD-4643-B9BB-A562D299B1EB}"/>
+    <hyperlink ref="C16" r:id="rId13" xr:uid="{FC55D911-0694-45D3-A3E6-E6544471CA67}"/>
+    <hyperlink ref="C17" r:id="rId14" xr:uid="{D6F14166-65BA-41C3-A4F6-893C117FFF65}"/>
+    <hyperlink ref="C18" r:id="rId15" xr:uid="{98B7FACB-1B06-440F-A555-9DE6834B020D}"/>
+    <hyperlink ref="C19" r:id="rId16" xr:uid="{529F00E7-7FA0-4BE7-8DED-28EAE2C36726}"/>
+    <hyperlink ref="C20" r:id="rId17" xr:uid="{F7F20F34-F168-4C0B-9C66-EAE5FAB837F2}"/>
+    <hyperlink ref="C21" r:id="rId18" xr:uid="{1EFD6142-B883-4FA8-9D34-348772063BA9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/lections/Лекции.xlsx
+++ b/lections/Лекции.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaski\sberbank\made\2 модуль\CV\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CA5E3E-59C1-435C-B908-4229706B3021}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5BDB8E-1274-4EFE-A5ED-BDC404A71162}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="20260" windowHeight="10894" xr2:uid="{72699DE9-3AE7-479E-B353-7DC036AF0F7E}"/>
   </bookViews>
@@ -128,9 +128,6 @@
     <t>https://youtu.be/IBV6_XPVaCw</t>
   </si>
   <si>
-    <t>GAN 1. [простой пример]</t>
-  </si>
-  <si>
     <t>https://youtu.be/RuyTK4NAvQU</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>Лекторы</t>
+  </si>
+  <si>
+    <t>GAN 1 [простой пример]</t>
   </si>
 </sst>
 </file>
@@ -300,12 +300,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -315,6 +309,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -633,15 +633,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD61EA8B-C709-4EF0-B8C4-A0EB4BD1702F}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="36.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -654,112 +652,112 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="14"/>
+      <c r="D1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="A6" s="13">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="A8" s="13">
         <v>4</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -774,10 +772,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -791,10 +789,10 @@
         <v>20</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -808,10 +806,10 @@
         <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -825,10 +823,10 @@
         <v>22</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30.05" x14ac:dyDescent="0.3">
@@ -842,10 +840,10 @@
         <v>23</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -859,10 +857,10 @@
         <v>24</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -876,10 +874,10 @@
         <v>26</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -893,10 +891,10 @@
         <v>28</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -904,16 +902,16 @@
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -921,16 +919,16 @@
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -938,33 +936,33 @@
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
-        <v>16</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>37</v>
+      <c r="D21" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/lections/Лекции.xlsx
+++ b/lections/Лекции.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaski\sberbank\made\2 модуль\CV\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5BDB8E-1274-4EFE-A5ED-BDC404A71162}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BBC0C8-4C8B-49A3-92F7-08E0EFDA545C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="20260" windowHeight="10894" xr2:uid="{72699DE9-3AE7-479E-B353-7DC036AF0F7E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t>No</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>GAN 1 [простой пример]</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ysJyKaY-4kU</t>
+  </si>
+  <si>
+    <t>Подведение итогов</t>
   </si>
 </sst>
 </file>
@@ -280,7 +286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -304,6 +310,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -631,7 +640,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD61EA8B-C709-4EF0-B8C4-A0EB4BD1702F}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -652,16 +661,16 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="12"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -673,8 +682,8 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
@@ -684,10 +693,10 @@
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -699,8 +708,8 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
@@ -710,10 +719,10 @@
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="A6" s="14">
         <v>3</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -725,8 +734,8 @@
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
@@ -736,10 +745,10 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+      <c r="A8" s="14">
         <v>4</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -751,8 +760,8 @@
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
@@ -963,6 +972,17 @@
       </c>
       <c r="E21" s="10" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>17</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -997,8 +1017,9 @@
     <hyperlink ref="C19" r:id="rId16" xr:uid="{529F00E7-7FA0-4BE7-8DED-28EAE2C36726}"/>
     <hyperlink ref="C20" r:id="rId17" xr:uid="{F7F20F34-F168-4C0B-9C66-EAE5FAB837F2}"/>
     <hyperlink ref="C21" r:id="rId18" xr:uid="{1EFD6142-B883-4FA8-9D34-348772063BA9}"/>
+    <hyperlink ref="C22" r:id="rId19" xr:uid="{5EB9D1B1-01D3-48A0-A294-89B2B7C433EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
--- a/lections/Лекции.xlsx
+++ b/lections/Лекции.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaski\sberbank\made\2 модуль\CV\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CA5E3E-59C1-435C-B908-4229706B3021}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BBC0C8-4C8B-49A3-92F7-08E0EFDA545C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="20260" windowHeight="10894" xr2:uid="{72699DE9-3AE7-479E-B353-7DC036AF0F7E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t>No</t>
   </si>
@@ -128,9 +128,6 @@
     <t>https://youtu.be/IBV6_XPVaCw</t>
   </si>
   <si>
-    <t>GAN 1. [простой пример]</t>
-  </si>
-  <si>
     <t>https://youtu.be/RuyTK4NAvQU</t>
   </si>
   <si>
@@ -174,6 +171,15 @@
   </si>
   <si>
     <t>Лекторы</t>
+  </si>
+  <si>
+    <t>GAN 1 [простой пример]</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ysJyKaY-4kU</t>
+  </si>
+  <si>
+    <t>Подведение итогов</t>
   </si>
 </sst>
 </file>
@@ -280,7 +286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -300,21 +306,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -631,17 +640,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD61EA8B-C709-4EF0-B8C4-A0EB4BD1702F}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="36.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -654,112 +661,112 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="14"/>
+      <c r="D1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="A6" s="14">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="A8" s="14">
         <v>4</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -774,10 +781,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -791,10 +798,10 @@
         <v>20</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -808,10 +815,10 @@
         <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -825,10 +832,10 @@
         <v>22</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30.05" x14ac:dyDescent="0.3">
@@ -842,10 +849,10 @@
         <v>23</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -859,10 +866,10 @@
         <v>24</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -876,10 +883,10 @@
         <v>26</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -893,10 +900,10 @@
         <v>28</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -904,16 +911,16 @@
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -921,16 +928,16 @@
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -938,33 +945,44 @@
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
-        <v>16</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>37</v>
+      <c r="D21" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>17</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -999,8 +1017,9 @@
     <hyperlink ref="C19" r:id="rId16" xr:uid="{529F00E7-7FA0-4BE7-8DED-28EAE2C36726}"/>
     <hyperlink ref="C20" r:id="rId17" xr:uid="{F7F20F34-F168-4C0B-9C66-EAE5FAB837F2}"/>
     <hyperlink ref="C21" r:id="rId18" xr:uid="{1EFD6142-B883-4FA8-9D34-348772063BA9}"/>
+    <hyperlink ref="C22" r:id="rId19" xr:uid="{5EB9D1B1-01D3-48A0-A294-89B2B7C433EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>